--- a/story/Activity Story 活动剧情/act17d0 Operation Originium Dust 源石尘行动/level_act17d0_03_beg.xlsx
+++ b/story/Activity Story 活动剧情/act17d0 Operation Originium Dust 源石尘行动/level_act17d0_03_beg.xlsx
@@ -1904,7 +1904,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ash"]タチャンカ！　弾薬は節約して！
+    <t xml:space="preserve">[name="Ash"]Tachanka！　弾薬は節約して！
 </t>
   </si>
   <si>
@@ -1932,7 +1932,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Frost"]タチャンカ！　正面、敵がまた立ち上がった！
+    <t xml:space="preserve">[name="Frost"]Tachanka！　正面、敵がまた立ち上がった！
 </t>
   </si>
   <si>
@@ -1956,7 +1956,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ash"]タチャンカ！　危ない！
+    <t xml:space="preserve">[name="Ash"]Tachanka！　危ない！
 </t>
   </si>
   <si>
@@ -3892,7 +3892,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Blitz"]알겠습니다.
+    <t xml:space="preserve">[name="Blitz"]라져.
 </t>
   </si>
   <si>
